--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1856121.122626047</v>
+        <v>1952751.995167779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324958</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5711304.35570532</v>
+        <v>6032966.452301636</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>324.7616665196397</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>413.90746379242</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>122.9607983085201</v>
+        <v>89.33835178582181</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>327.7904349358024</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>301.1653721856256</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>73.41920176041634</v>
+        <v>32.80877687238468</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,16 +1138,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>38.92859933434407</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>313.2705823806623</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>113.6485864680538</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.5103196251636</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>208.6055061681051</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1537,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>13.01313443288555</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>95.49702893560776</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>47.61404849749868</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>52.79556056590986</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>43.77283765622091</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2609,7 +2611,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>43.48898701015855</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.139541480032042</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199121</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>98.73120706589795</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>239.8015903253609</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3266,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884115</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3557,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>110.738964376342</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>173.2212647391075</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773023</v>
       </c>
       <c r="E44" t="n">
-        <v>403.1339484175296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864809</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>39.57637241135534</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.183860150983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>947.0019290635947</v>
       </c>
       <c r="C2" t="n">
-        <v>922.6789426131436</v>
+        <v>912.8998602874221</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>881.0304795022707</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>452.4488052395391</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4328,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1064.642944270978</v>
+        <v>688.0958302396116</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
         <v>428.0970671107308</v>
@@ -4492,46 +4494,46 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1581.05148302064</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1292.062614956869</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.062614956869</v>
+        <v>1125.306203625186</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.062614956869</v>
+        <v>879.9144489585988</v>
       </c>
       <c r="Y4" t="n">
-        <v>1064.642944270978</v>
+        <v>879.9144489585988</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>860.4931884360099</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>826.3911196598372</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.31037899924</v>
+        <v>794.5217388746858</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>764.787398073385</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>740.9603725229969</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.5625411462607</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>674.5331706342552</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679033</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1922.734738723811</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847743</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.06097578157</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1595.245925233007</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1291.03847858086</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1286.792758920918</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1364.551312986335</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1258.094851822977</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1163.004562969531</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1068.884148296484</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>985.5003099126459</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>900.1152201788298</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>858.3795679950422</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>884.4432411554998</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>884.4432411554998</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>884.4432411554998</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>884.4432411554998</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>884.4432411554998</v>
       </c>
       <c r="N6" t="n">
-        <v>1277.130531135514</v>
+        <v>884.4432411554998</v>
       </c>
       <c r="O6" t="n">
-        <v>1697.183430080417</v>
+        <v>1239.606828702658</v>
       </c>
       <c r="P6" t="n">
-        <v>1697.183430080417</v>
+        <v>1863.707612747436</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>2404.446551379511</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2458.163891922234</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2327.985248252836</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2151.648701252804</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1952.531183314803</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1767.208429047997</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1612.340993286877</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1485.855214066098</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760.0629855319191</v>
+        <v>901.409065118233</v>
       </c>
       <c r="C7" t="n">
-        <v>760.0629855319191</v>
+        <v>901.409065118233</v>
       </c>
       <c r="D7" t="n">
-        <v>760.0629855319191</v>
+        <v>735.5310723197557</v>
       </c>
       <c r="E7" t="n">
-        <v>590.3049817826563</v>
+        <v>565.773068570493</v>
       </c>
       <c r="F7" t="n">
-        <v>413.5979277444126</v>
+        <v>389.0660145322493</v>
       </c>
       <c r="G7" t="n">
-        <v>248.0066527702402</v>
+        <v>223.4747395580769</v>
       </c>
       <c r="H7" t="n">
-        <v>108.1044784606148</v>
+        <v>83.57256524845144</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068769</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>684.507741074838</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1143.991608255751</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639177</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609519</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2362.377960771847</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2116.498514350303</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1838.065513603408</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.509060631519</v>
+        <v>1838.065513603408</v>
       </c>
       <c r="W7" t="n">
-        <v>987.4826562178109</v>
+        <v>1566.0391091897</v>
       </c>
       <c r="X7" t="n">
-        <v>987.4826562178109</v>
+        <v>1320.647354523112</v>
       </c>
       <c r="Y7" t="n">
-        <v>760.0629855319191</v>
+        <v>1093.22768383722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1557.262375348432</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>1523.160306572259</v>
       </c>
       <c r="D8" t="n">
-        <v>1581.337547761512</v>
+        <v>1087.250521746703</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.75587349878</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>745.5978778793813</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>573.0361663626062</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>407.1581735641289</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>237.4001698148662</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>237.4001698148662</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>237.4001698148662</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1410.227921950848</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1164.83616728426</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>937.4164965983684</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>76.13761321162086</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1018.340576705429</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>1960.543540199237</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2902.746503693045</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3260.381874622449</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3547.65835789806</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.65835789806</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3336.945725405024</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O12" t="n">
-        <v>426.7596113382908</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4337425647182</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7266885264744</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3444.26371051487</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3025.12124709418</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.7778208489149</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>724.2161093321398</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>558.3381165336625</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2644.702224632099</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2398.822778210554</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U16" t="n">
-        <v>2120.389777463659</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1833.43426933409</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.407864920381</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1316.016110253794</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1088.596439567902</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2240328681073</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="K18" t="n">
-        <v>810.9575529384846</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="L18" t="n">
-        <v>1765.500601749588</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>4572.303074906906</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1056.803889081883</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
         <v>1648.327823655249</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.761663117513</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.781058858859</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>754.2193473420839</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2674.705462642043</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2428.826016220498</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U25" t="n">
-        <v>2150.393015473603</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1863.437507344034</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1591.411102930325</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.019348263738</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.599677577846</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,34 +6229,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740237</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
         <v>4550.100609912873</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6309,10 +6311,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937729</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769978</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>451.8971520785205</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292578</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>105.432094291014</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>105.432094291014</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>105.432094291014</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798652</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127601</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,22 +6548,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6643,7 +6645,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,10 +6788,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789917</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D34" t="n">
-        <v>777.0165135789917</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>607.2585098297291</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>430.5514557914853</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6926,7 +6928,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6938,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3168.718933692368</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
         <v>4566.543227580387</v>
@@ -6962,25 +6964,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7162,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M39" t="n">
-        <v>634.526213836947</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N39" t="n">
-        <v>634.526213836947</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1306.390568510016</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1194.533028735933</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162089</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>76.13761321162089</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>76.13761321162089</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>547.6660728014363</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1489.869036295245</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2432.071999789053</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3260.38187462245</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581044</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2964.974180704926</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2560.118726115959</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2140.97626269527</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1732.690138994923</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1785.680098319961</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>1347.537625503384</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D44" t="n">
-        <v>911.6278406778283</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>504.4218321752732</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>76.55440258448088</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.55440258448088</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035996</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035996</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035996</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.880660581044</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3444.263710514871</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3039.408255925904</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2620.265792505215</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y44" t="n">
-        <v>2211.979668804868</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162089</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6519178178302</v>
+        <v>990.252953592607</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7739250193529</v>
+        <v>824.3749607941297</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0159212700901</v>
+        <v>654.6169570448669</v>
       </c>
       <c r="F46" t="n">
-        <v>216.0397875212464</v>
+        <v>477.9099030066232</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>312.3186280324508</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,22 +8063,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8142,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>604.9339300505453</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.7510985324827</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377777</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>371.7091627680287</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>361.2478494236398</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>497.8733301746876</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>28.24564908820976</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>279.5090739465427</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,13 +9959,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.871232860595138e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,13 +10597,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>127.539329130751</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1050.67235666819</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>421.8632599168805</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M39" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>476.2913733230459</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>807.5312715220471</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>206.3455326183773</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.7062335277353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>110.0349065174846</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>113.8761173587624</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.4463752142721</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825303938</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20415515853266</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>44.2843627229129</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>323.0220837120689</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>69.71657238081417</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>26.30304897575814</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.363611086506</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.31929241554619</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>492518.1014789543</v>
+        <v>505200.4239022295</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492518.1014789543</v>
+        <v>507483.9039481551</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427282.8442136597</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427282.8442136597</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528462.1855950096</v>
+        <v>528462.1855950098</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528462.1855950096</v>
+        <v>528462.1855950099</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528462.1855950097</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427282.8442136598</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427282.8442136598</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
         <v>482532.5879013676</v>
@@ -26320,22 +26322,22 @@
         <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="K2" t="n">
         <v>474171.825723617</v>
@@ -26344,16 +26346,16 @@
         <v>474171.8257236171</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>383386.9136976225</v>
+        <v>474171.8257236168</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950159</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998302</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26392,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>3.250528837155401e-11</v>
+        <v>53045.85463877231</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622516</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924763</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81439.57146904278</v>
+      </c>
+      <c r="I4" t="n">
         <v>81439.57146904284</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>81439.57146904296</v>
+      </c>
+      <c r="K4" t="n">
         <v>81439.57146904284</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="M4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="N4" t="n">
         <v>81439.57146904283</v>
       </c>
-      <c r="J4" t="n">
-        <v>81439.5714690428</v>
-      </c>
-      <c r="K4" t="n">
-        <v>81439.57146904283</v>
-      </c>
-      <c r="L4" t="n">
-        <v>81439.57146904283</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81439.57146904283</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81439.57146904284</v>
-      </c>
       <c r="O4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="P4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74955.5262625686</v>
+        <v>74955.52626256866</v>
       </c>
       <c r="C6" t="n">
-        <v>217146.8269222784</v>
+        <v>172515.8404058729</v>
       </c>
       <c r="D6" t="n">
-        <v>217146.8269222786</v>
+        <v>231529.3795300685</v>
       </c>
       <c r="E6" t="n">
-        <v>102197.8772004556</v>
+        <v>132658.9064277319</v>
       </c>
       <c r="F6" t="n">
-        <v>259675.1721225595</v>
+        <v>315014.0156487817</v>
       </c>
       <c r="G6" t="n">
-        <v>225514.2070424126</v>
+        <v>315014.0156487816</v>
       </c>
       <c r="H6" t="n">
         <v>315014.0156487817</v>
       </c>
       <c r="I6" t="n">
-        <v>315014.0156487818</v>
+        <v>315014.0156487817</v>
       </c>
       <c r="J6" t="n">
-        <v>203999.5503037916</v>
+        <v>203999.5503037915</v>
       </c>
       <c r="K6" t="n">
-        <v>315014.0156487817</v>
+        <v>261968.1610100094</v>
       </c>
       <c r="L6" t="n">
-        <v>315014.0156487818</v>
+        <v>305621.7139221592</v>
       </c>
       <c r="M6" t="n">
-        <v>183577.7684913622</v>
+        <v>162813.844710794</v>
       </c>
       <c r="N6" t="n">
         <v>315014.0156487817</v>
       </c>
       <c r="O6" t="n">
-        <v>259675.1721225596</v>
+        <v>315014.0156487817</v>
       </c>
       <c r="P6" t="n">
-        <v>259675.1721225596</v>
+        <v>315014.0156487816</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>4.063161046444251e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>108.9993815687712</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.681291502464319</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47.87529609308719</v>
+        <v>81.4977426157855</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>101.6465624574853</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>113.7856666008568</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.35414797265507</v>
+        <v>54.96457286068674</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27858,16 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>392.6220876429558</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>116.1664150126255</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.8545660984754</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.156815530843926e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.144969615027459e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29496,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>9.56060830503702e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29986,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,13 +30696,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-2.391468329898003e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30712,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,13 +30747,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30760,7 +30762,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,22 +34783,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34862,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>604.9339300505453</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.7510985324827</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377777</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>371.7091627680287</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>361.2478494236398</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>497.8733301746876</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J18" t="n">
-        <v>28.24564908820976</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>279.5090739465427</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>-2.647518703460994e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>127.539329130751</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1050.67235666819</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>421.8632599168805</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M39" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>476.2913733230459</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>807.5312715220471</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1952751.995167779</v>
+        <v>1952226.812798746</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>317.078903479882</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>413.90746379242</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,10 +715,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -819,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>89.33835178582181</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>163.293878347428</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>234.8751415279855</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>301.1653721856256</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964408</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>32.80877687238468</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1138,10 +1138,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>313.2705823806623</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,16 +1189,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>314.249258385514</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1296,10 +1296,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>32.98066327132578</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>108.5103196251636</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>13.01313443288555</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>231.6604091503376</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>52.79556056590986</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>3.139541480032042</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199121</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>239.8015903253609</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884115</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>169.9259850434489</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3760,7 +3760,7 @@
         <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655118</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>82.15263531037714</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,13 +3957,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>173.2212647391075</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3982,22 +3982,22 @@
         <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773023</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864809</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463344</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.183860150983</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.0019290635947</v>
+        <v>729.203080354842</v>
       </c>
       <c r="C2" t="n">
-        <v>912.8998602874221</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>881.0304795022707</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>452.4488052395391</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4363,19 +4363,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.547219208445</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.301499548503</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.0958302396116</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>597.8550708599936</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>597.8550708599936</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
         <v>428.0970671107308</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.544589050298</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1581.05148302064</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1397.332608038895</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1125.306203625186</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9144489585988</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.9144489585988</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860.4931884360099</v>
+        <v>779.3838434627786</v>
       </c>
       <c r="C5" t="n">
-        <v>826.3911196598372</v>
+        <v>341.2413706462019</v>
       </c>
       <c r="D5" t="n">
-        <v>794.5217388746858</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>764.787398073385</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>740.9603725229969</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462607</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947702</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>674.5331706342552</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1298.633954679033</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>1922.734738723811</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>2521.619329473851</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>2521.619329473851</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473851</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473851</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657688</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530727</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847743</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="V5" t="n">
-        <v>1596.06097578157</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.245925233007</v>
+        <v>2033.112001068723</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.03847858086</v>
+        <v>1613.969537648033</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.792758920918</v>
+        <v>1205.683413947686</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364.551312986335</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>1258.094851822977</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>1163.004562969531</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>1068.884148296484</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>985.5003099126459</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>900.1152201788298</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>858.3795679950422</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>884.4432411554998</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>884.4432411554998</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>884.4432411554998</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>884.4432411554998</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>884.4432411554998</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>884.4432411554998</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.606828702658</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.707612747436</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>2404.446551379511</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>2521.619329473851</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>2458.163891922234</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>2327.985248252836</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>2151.648701252804</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1952.531183314803</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>1767.208429047997</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>1612.340993286877</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>1485.855214066098</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>901.409065118233</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>901.409065118233</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>735.5310723197557</v>
+        <v>254.5960313787843</v>
       </c>
       <c r="E7" t="n">
-        <v>565.773068570493</v>
+        <v>84.83802762952158</v>
       </c>
       <c r="F7" t="n">
-        <v>389.0660145322493</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>223.4747395580769</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>83.57256524845144</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068769</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.507741074838</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255751</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639177</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609519</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473851</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771847</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350303</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.065513603408</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1838.065513603408</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1566.0391091897</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.647354523112</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1093.22768383722</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1557.262375348432</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C8" t="n">
-        <v>1523.160306572259</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>1087.250521746703</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2002.909724873567</v>
+        <v>1427.078979420445</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.807665493282</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.521541792935</v>
+        <v>599.6503922994095</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>392.2084670965938</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>226.6171921224215</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>86.71501781279602</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5001,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5047,10 +5047,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5123,25 +5123,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,43 +5287,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1801.366221019967</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5551,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>3475.865925220631</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>4572.303074906906</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.441008084184</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2239.052964698928</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1952.097456569358</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1680.07105215565</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1434.679297489062</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.259626803171</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5752,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5940,22 +5940,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5998,10 +5998,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6065,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937729</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769978</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.8971520785205</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292578</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>105.432094291014</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>105.432094291014</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>105.432094291014</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798652</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127601</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6475,13 +6475,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6645,7 +6645,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6709,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1952.384174393664</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6925,7 +6925,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6967,22 +6967,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7122,13 +7122,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
         <v>2117.975449367836</v>
@@ -7162,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436397</v>
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7444,16 +7444,16 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136697</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1041.416826573035</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C43" t="n">
-        <v>868.8551150562604</v>
+        <v>926.1484743011855</v>
       </c>
       <c r="D43" t="n">
-        <v>702.9771222577831</v>
+        <v>760.2704815027082</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2191185085204</v>
+        <v>590.5124777534454</v>
       </c>
       <c r="F43" t="n">
-        <v>356.5120644702766</v>
+        <v>413.8054237152016</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7575,19 +7575,19 @@
         <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745652</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
         <v>2718.920450173579</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1763.340229889427</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.655115977914</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y43" t="n">
-        <v>1233.235445292023</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835215</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7636,49 +7636,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
         <v>4550.100609912874</v>
@@ -7690,10 +7690,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837046</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1162.814665109382</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>990.252953592607</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>824.3749607941297</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>654.6169570448669</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>477.9099030066232</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>312.3186280324508</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,13 +8063,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684627</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684626</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>604.9339300505453</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.7510985324827</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377777</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>497.8733301746876</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>279.5090739465427</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9646,13 +9646,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10132,7 +10132,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>127.539329130751</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>421.8632599168805</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
-        <v>807.5312715220471</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>52.42554389793619</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>84.63380825303938</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>44.2843627229129</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.78272691405347</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>69.71657238081417</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.31929241554619</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528462.1855950098</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528462.1855950099</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528462.1855950096</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528462.1855950097</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>528462.1855950097</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>482532.5879013675</v>
+      </c>
+      <c r="C2" t="n">
         <v>482532.5879013677</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>482532.5879013676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
         <v>474171.825723617</v>
@@ -26328,7 +26328,7 @@
         <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
@@ -26337,25 +26337,25 @@
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.8257236172</v>
+        <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="P2" t="n">
-        <v>474171.8257236168</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.7678950159</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998302</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,16 +26392,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877231</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622516</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
         <v>81439.5714690428</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904296</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="M4" t="n">
         <v>81439.57146904284</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>81439.5714690428</v>
       </c>
-      <c r="N4" t="n">
-        <v>81439.57146904283</v>
-      </c>
       <c r="O4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904268</v>
+        <v>81439.57146904277</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800253</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26487,7 +26487,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26511,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74955.52626256866</v>
+        <v>74955.52626256848</v>
       </c>
       <c r="C6" t="n">
-        <v>172515.8404058729</v>
+        <v>172515.8404058728</v>
       </c>
       <c r="D6" t="n">
-        <v>231529.3795300685</v>
+        <v>231529.3795300686</v>
       </c>
       <c r="E6" t="n">
-        <v>132658.9064277319</v>
+        <v>132635.6820883492</v>
       </c>
       <c r="F6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.7913093989</v>
       </c>
       <c r="G6" t="n">
-        <v>315014.0156487816</v>
+        <v>314990.791309399</v>
       </c>
       <c r="H6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.791309399</v>
       </c>
       <c r="I6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.791309399</v>
       </c>
       <c r="J6" t="n">
-        <v>203999.5503037915</v>
+        <v>203976.3259644089</v>
       </c>
       <c r="K6" t="n">
-        <v>261968.1610100094</v>
+        <v>261944.9366706267</v>
       </c>
       <c r="L6" t="n">
-        <v>305621.7139221592</v>
+        <v>305598.4895827766</v>
       </c>
       <c r="M6" t="n">
-        <v>162813.844710794</v>
+        <v>162790.6203714114</v>
       </c>
       <c r="N6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.7913093991</v>
       </c>
       <c r="O6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.7913093992</v>
       </c>
       <c r="P6" t="n">
-        <v>315014.0156487816</v>
+        <v>314990.7913093989</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684627</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26831,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483584</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939419</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483584</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939419</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483584</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939419</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>116.6821446085289</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>9.681291502464319</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>81.4977426157855</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,19 +27593,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>79.64395877249362</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>196.6755454493144</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>113.7856666008568</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682173</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>54.96457286068674</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>116.1664150126255</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>86.55764165756301</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.156815530843926e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29498,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>9.56060830503702e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.379141014064721e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-9.716805852908664e-13</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.391468329898003e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-8.997529158509207e-13</v>
       </c>
     </row>
     <row r="45">
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,13 +34783,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684627</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684626</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>604.9339300505453</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.7510985324827</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377777</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>497.8733301746876</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>279.5090739465427</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36366,13 +36366,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36852,7 +36852,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>127.539329130751</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>421.8632599168805</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37943,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080406</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
-        <v>807.5312715220471</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.8366918850629</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
